--- a/data/trans_bre/POLIPATOLOGIA_2-Clase-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA_2-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,32; 12,68</t>
+          <t>0,48; 12,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 8,54</t>
+          <t>-4,49; 8,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 8,72</t>
+          <t>-4,36; 8,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,17; 14,61</t>
+          <t>3,85; 14,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,51; 92,25</t>
+          <t>2,19; 96,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-21,14; 50,55</t>
+          <t>-19,84; 50,54</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-17,11; 44,33</t>
+          <t>-17,0; 43,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,53; 53,71</t>
+          <t>11,2; 55,21</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,16; 15,93</t>
+          <t>3,56; 15,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,98; 13,92</t>
+          <t>1,05; 13,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 6,47</t>
+          <t>-4,53; 7,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,71; 12,58</t>
+          <t>0,32; 13,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,68; 129,58</t>
+          <t>20,49; 124,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,66; 79,19</t>
+          <t>4,86; 79,55</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-24,09; 36,59</t>
+          <t>-19,35; 41,87</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,83; 42,05</t>
+          <t>0,83; 43,59</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,61; 19,87</t>
+          <t>1,85; 18,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,35; 14,84</t>
+          <t>-1,05; 14,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 16,68</t>
+          <t>-0,17; 17,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,3; 52,73</t>
+          <t>17,34; 51,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,88; 96,74</t>
+          <t>8,55; 87,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,82; 52,45</t>
+          <t>-3,01; 51,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 64,23</t>
+          <t>-0,14; 70,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>45,93; 562,72</t>
+          <t>44,01; 558,23</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 7,6</t>
+          <t>-0,39; 7,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 5,3</t>
+          <t>-3,34; 5,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 7,1</t>
+          <t>-1,27; 6,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,58; 42,35</t>
+          <t>5,38; 41,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 32,22</t>
+          <t>-1,42; 31,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-11,12; 19,59</t>
+          <t>-11,21; 19,56</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 29,68</t>
+          <t>-4,44; 29,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,42; 126,0</t>
+          <t>14,77; 125,51</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,44; 18,04</t>
+          <t>7,35; 18,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,96; 27,79</t>
+          <t>16,81; 27,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,86; 22,48</t>
+          <t>11,97; 21,89</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12,26; 31,03</t>
+          <t>13,02; 31,47</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>24,5; 98,94</t>
+          <t>30,35; 107,64</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>61,82; 131,22</t>
+          <t>61,64; 130,03</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>37,46; 86,03</t>
+          <t>38,56; 84,72</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>31,35; 94,13</t>
+          <t>32,68; 91,2</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>35,07; 41,32</t>
+          <t>34,62; 41,21</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>37,05; 45,96</t>
+          <t>36,14; 45,94</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>33,8; 41,99</t>
+          <t>33,74; 41,94</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>21,92; 38,95</t>
+          <t>22,59; 39,18</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>687,89; 2612,81</t>
+          <t>602,43; 2505,25</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>377,81; 1224,25</t>
+          <t>343,11; 1285,18</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>401,74; 1254,17</t>
+          <t>422,16; 1443,31</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>91,72; 434,52</t>
+          <t>88,78; 419,74</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,52; 15,96</t>
+          <t>11,72; 15,97</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>12,02; 16,71</t>
+          <t>12,17; 16,75</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,03; 14,38</t>
+          <t>9,75; 14,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>13,91; 30,21</t>
+          <t>14,05; 30,15</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>55,54; 84,7</t>
+          <t>56,11; 84,61</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>47,23; 72,31</t>
+          <t>47,31; 72,39</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>39,91; 62,45</t>
+          <t>38,71; 63,15</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>42,75; 114,17</t>
+          <t>43,22; 118,05</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/POLIPATOLOGIA_2-Clase-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA_2-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
